--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -531,10 +531,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H2">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287673666666667</v>
+        <v>0.8059226666666667</v>
       </c>
       <c r="N2">
-        <v>3.863021</v>
+        <v>2.417768</v>
       </c>
       <c r="O2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="P2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="Q2">
-        <v>0.2511379997818889</v>
+        <v>0.05635306790311111</v>
       </c>
       <c r="R2">
-        <v>2.260241998037</v>
+        <v>0.507177611128</v>
       </c>
       <c r="S2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="T2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,10 +593,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H3">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.89399</v>
+        <v>5.323633333333333</v>
       </c>
       <c r="N3">
-        <v>5.68197</v>
+        <v>15.9709</v>
       </c>
       <c r="O3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184686</v>
       </c>
       <c r="P3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184687</v>
       </c>
       <c r="Q3">
-        <v>0.36938928901</v>
+        <v>0.3722479626555555</v>
       </c>
       <c r="R3">
-        <v>3.32450360109</v>
+        <v>3.3502316639</v>
       </c>
       <c r="S3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184686</v>
       </c>
       <c r="T3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184687</v>
       </c>
     </row>
   </sheetData>
